--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T10:55:58+00:00</t>
+    <t>2025-10-15T11:05:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:37:17+00:00</t>
+    <t>2025-10-15T12:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:01:34+00:00</t>
+    <t>2025-10-15T12:12:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:12:48+00:00</t>
+    <t>2025-10-15T12:17:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
